--- a/PorSi10_diplom/Izmerenie1.xlsx
+++ b/PorSi10_diplom/Izmerenie1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="05.04.18" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="12.04.18" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="16.04.18" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="19.04.19" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="23.04" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t xml:space="preserve">φ</t>
   </si>
@@ -50,7 +51,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">tan(</t>
@@ -68,7 +69,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
@@ -79,7 +80,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">cos(</t>
@@ -97,7 +98,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
@@ -111,11 +112,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -142,6 +143,13 @@
     <font>
       <sz val="10"/>
       <name val="Liberation Sans1"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -188,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,6 +206,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -224,13 +236,13 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -292,7 +304,7 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">COS(G2)</f>
-        <v>-0.776211491010254</v>
+        <v>-0.776211491010255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -325,7 +337,7 @@
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">COS(G3)</f>
-        <v>-0.719485273469593</v>
+        <v>-0.719485273469594</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -346,7 +358,7 @@
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">RADIANS(51.08)</f>
-        <v>0.891514181918704</v>
+        <v>0.891514181918703</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">RADIANS(-123)</f>
@@ -358,7 +370,7 @@
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">COS(G4)</f>
-        <v>-0.544639035015027</v>
+        <v>-0.544639035015031</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -391,7 +403,7 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">COS(G5)</f>
-        <v>-0.452559223326377</v>
+        <v>-0.452559223326376</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -424,7 +436,7 @@
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">COS(G6)</f>
-        <v>-0.340313904888684</v>
+        <v>-0.340313904888686</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -453,11 +465,11 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">TAN(F7)</f>
-        <v>1.73484671563715</v>
+        <v>1.73484671563717</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">COS(G7)</f>
-        <v>-0.17787484603967</v>
+        <v>-0.177874846039674</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -486,11 +498,11 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">TAN(F8)</f>
-        <v>1.8846923700007</v>
+        <v>1.88469237000069</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">COS(G8)</f>
-        <v>-0.17787484603967</v>
+        <v>-0.177874846039674</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -519,11 +531,11 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">TAN(F9)</f>
-        <v>2.09833405787153</v>
+        <v>2.09833405787152</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">COS(G9)</f>
-        <v>-0.0570412885398922</v>
+        <v>-0.0570412885398911</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -552,11 +564,11 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">TAN(F10)</f>
-        <v>2.36272851833525</v>
+        <v>2.36272851833527</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">COS(G10)</f>
-        <v>0.158278701427882</v>
+        <v>0.158278701427885</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -585,11 +597,11 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">TAN(F11)</f>
-        <v>2.48106916911003</v>
+        <v>2.48106916911002</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">COS(G11)</f>
-        <v>0.343987479375726</v>
+        <v>0.343987479375723</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -651,11 +663,11 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">TAN(F13)</f>
-        <v>2.67747029710459</v>
+        <v>2.6774702971046</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">COS(G13)</f>
-        <v>0.744078383350937</v>
+        <v>0.744078383350936</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -680,15 +692,15 @@
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">RADIANS(-34.096)</f>
-        <v>-0.595087461759986</v>
+        <v>-0.595087461759987</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">TAN(F14)</f>
-        <v>2.54255113749438</v>
+        <v>2.54255113749435</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">COS(G14)</f>
-        <v>0.828099472590011</v>
+        <v>0.82809947259001</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -750,7 +762,7 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">TAN(F16)</f>
-        <v>2.05394194962887</v>
+        <v>2.05394194962888</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COS(G16)</f>
@@ -783,7 +795,7 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">TAN(F17)</f>
-        <v>1.92672573611158</v>
+        <v>1.92672573611157</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COS(G17)</f>
@@ -816,7 +828,7 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">TAN(F18)</f>
-        <v>1.88342186219852</v>
+        <v>1.88342186219851</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">COS(G18)</f>
@@ -849,7 +861,7 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">TAN(F19)</f>
-        <v>2.99563347197912</v>
+        <v>2.99563347197909</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">COS(G19)</f>
@@ -858,7 +870,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
@@ -878,13 +890,13 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -975,7 +987,7 @@
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">TAN(F3)</f>
-        <v>1.71472831977252</v>
+        <v>1.71472831977251</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">COS(G3)</f>
@@ -1008,7 +1020,7 @@
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">TAN(F4)</f>
-        <v>1.84330501148566</v>
+        <v>1.84330501148565</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">COS(G4)</f>
@@ -1041,7 +1053,7 @@
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">TAN(F5)</f>
-        <v>2.12030339040621</v>
+        <v>2.12030339040622</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">COS(G5)</f>
@@ -1074,11 +1086,11 @@
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">TAN(F6)</f>
-        <v>2.25026338560236</v>
+        <v>2.25026338560239</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">COS(G6)</f>
-        <v>-0.956661241593995</v>
+        <v>-0.956661241593996</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1099,7 +1111,7 @@
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">RADIANS(67.63)</f>
-        <v>1.18036617312377</v>
+        <v>1.18036617312376</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">RADIANS(-204.94)</f>
@@ -1107,7 +1119,7 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">TAN(F7)</f>
-        <v>2.4297921331699</v>
+        <v>2.42979213316987</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">COS(G7)</f>
@@ -1140,7 +1152,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">TAN(F8)</f>
-        <v>2.67747029710459</v>
+        <v>2.6774702971046</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">COS(G8)</f>
@@ -1173,11 +1185,11 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">TAN(F9)</f>
-        <v>2.91246490155798</v>
+        <v>2.91246490155796</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">COS(G9)</f>
-        <v>-0.670038029434062</v>
+        <v>-0.670038029434059</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1206,11 +1218,11 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">TAN(F10)</f>
-        <v>2.99737514256835</v>
+        <v>2.99737514256832</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">COS(G10)</f>
-        <v>-0.471781502685301</v>
+        <v>-0.471781502685297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1239,11 +1251,11 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">TAN(F11)</f>
-        <v>2.99563347197912</v>
+        <v>2.99563347197909</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">COS(G11)</f>
-        <v>-0.276476109833981</v>
+        <v>-0.27647610983398</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1272,7 +1284,7 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">TAN(F12)</f>
-        <v>2.90585833330984</v>
+        <v>2.90585833330981</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">COS(G12)</f>
@@ -1305,11 +1317,11 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">TAN(F13)</f>
-        <v>2.82861887311785</v>
+        <v>2.82861887311784</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">COS(G13)</f>
-        <v>0.104354884860902</v>
+        <v>0.104354884860901</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1338,11 +1350,11 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">TAN(F14)</f>
-        <v>2.75345696090764</v>
+        <v>2.75345696090765</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">COS(G14)</f>
-        <v>0.275134002609202</v>
+        <v>0.275134002609198</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1371,11 +1383,11 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">TAN(F15)</f>
-        <v>2.56884082167939</v>
+        <v>2.56884082167937</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">COS(G15)</f>
-        <v>0.451967703219765</v>
+        <v>0.451967703219768</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1437,11 +1449,11 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">TAN(F17)</f>
-        <v>2.30203968256333</v>
+        <v>2.30203968256335</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COS(G17)</f>
-        <v>0.694030363634562</v>
+        <v>0.694030363634564</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1470,7 +1482,7 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">TAN(F18)</f>
-        <v>2.10409925416184</v>
+        <v>2.10409925416185</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">COS(G18)</f>
@@ -1503,16 +1515,16 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">TAN(F19)</f>
-        <v>1.96600237677324</v>
+        <v>1.96600237677326</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">COS(G19)</f>
-        <v>0.874619707139396</v>
+        <v>0.874619707139395</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
@@ -1532,17 +1544,17 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>46</v>
       </c>
@@ -1593,7 +1605,7 @@
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">RADIANS(-169.91)</f>
-        <v>-2.96548893206357</v>
+        <v>-2.96548893206356</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">TAN(F2)</f>
@@ -1601,10 +1613,10 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">COS(G2)</f>
-        <v>-0.984533772247128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.984533772247127</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>48</v>
       </c>
@@ -1634,10 +1646,10 @@
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">COS(G3)</f>
-        <v>-0.984655841422451</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.98465584142245</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>50</v>
       </c>
@@ -1663,14 +1675,14 @@
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">TAN(F4)</f>
-        <v>1.84177088603346</v>
+        <v>1.84177088603345</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">COS(G4)</f>
         <v>-0.990072781208217</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>52</v>
       </c>
@@ -1703,7 +1715,7 @@
         <v>-0.994393447566611</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>54</v>
       </c>
@@ -1729,14 +1741,14 @@
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">TAN(F6)</f>
-        <v>2.24920548834184</v>
+        <v>2.24920548834186</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">COS(G6)</f>
         <v>-0.99617947137218</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>56</v>
       </c>
@@ -1762,14 +1774,14 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">TAN(F7)</f>
-        <v>2.25111030189257</v>
+        <v>2.25111030189254</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">COS(G7)</f>
-        <v>-0.997465679479078</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.997465679479077</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>58</v>
       </c>
@@ -1795,14 +1807,14 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">TAN(F8)</f>
-        <v>2.68175350059308</v>
+        <v>2.68175350059311</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">COS(G8)</f>
         <v>-0.999835267422382</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
@@ -1828,14 +1840,14 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">TAN(F9)</f>
-        <v>3.27555486238988</v>
+        <v>3.27555486238989</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">COS(G9)</f>
         <v>-0.996209894465485</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>62</v>
       </c>
@@ -1861,14 +1873,14 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">TAN(F10)</f>
-        <v>3.87787946704701</v>
+        <v>3.87787946704706</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">COS(G10)</f>
         <v>-0.946028810163607</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>64</v>
       </c>
@@ -1894,14 +1906,14 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">TAN(F11)</f>
-        <v>5.15897425309576</v>
+        <v>5.15897425309579</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">COS(G11)</f>
-        <v>-0.830401462336329</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.830401462336331</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>66</v>
       </c>
@@ -1927,14 +1939,14 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">TAN(F12)</f>
-        <v>5.41661852835523</v>
+        <v>5.41661852835524</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">COS(G12)</f>
-        <v>-0.516383874201121</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.516383874201123</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>68</v>
       </c>
@@ -1960,14 +1972,14 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">TAN(F13)</f>
-        <v>5.85516335992684</v>
+        <v>5.85516335992698</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">COS(G13)</f>
-        <v>-0.0535559730176858</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.0535559730176894</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>70</v>
       </c>
@@ -1993,14 +2005,14 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">TAN(F14)</f>
-        <v>3.61814147992375</v>
+        <v>3.61814147992371</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">COS(G14)</f>
         <v>0.574648212159581</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>72</v>
       </c>
@@ -2026,14 +2038,14 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">TAN(F15)</f>
-        <v>3.08758200770383</v>
+        <v>3.08758200770379</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">COS(G15)</f>
-        <v>0.693904698830246</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.693904698830247</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>74</v>
       </c>
@@ -2059,14 +2071,14 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">TAN(F16)</f>
-        <v>2.48194366838521</v>
+        <v>2.4819436683852</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COS(G16)</f>
-        <v>0.829076609563973</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.829076609563971</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>76</v>
       </c>
@@ -2096,10 +2108,10 @@
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COS(G17)</f>
-        <v>0.85698746628054</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.856987466280542</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>78</v>
       </c>
@@ -2125,14 +2137,14 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">TAN(F18)</f>
-        <v>1.92426088262547</v>
+        <v>1.92426088262545</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">COS(G18)</f>
-        <v>0.90616021022129</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.906160210221292</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>80</v>
       </c>
@@ -2158,7 +2170,7 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">TAN(F19)</f>
-        <v>1.80702176437718</v>
+        <v>1.80702176437719</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">COS(G19)</f>
@@ -2167,7 +2179,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
@@ -2183,16 +2195,16 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>46</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>-0.970084240161046</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>48</v>
       </c>
@@ -2280,14 +2292,14 @@
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">TAN(F3)</f>
-        <v>1.5727125584501</v>
+        <v>1.57271255845011</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">COS(G3)</f>
         <v>-0.970126596490106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>50</v>
       </c>
@@ -2313,14 +2325,14 @@
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">TAN(F4)</f>
-        <v>1.77182070561559</v>
+        <v>1.77182070561561</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">COS(G4)</f>
-        <v>-0.974094508110173</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.974094508110172</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>52</v>
       </c>
@@ -2350,10 +2362,10 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">COS(G5)</f>
-        <v>-0.973979922942275</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.973979922942276</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>54</v>
       </c>
@@ -2379,14 +2391,14 @@
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">TAN(F6)</f>
-        <v>2.27482659321618</v>
+        <v>2.27482659321616</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">COS(G6)</f>
         <v>-0.984472557712064</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>56</v>
       </c>
@@ -2412,14 +2424,14 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">TAN(F7)</f>
-        <v>2.75450574481333</v>
+        <v>2.75450574481335</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">COS(G7)</f>
-        <v>-0.992353495298594</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.992353495298595</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>58</v>
       </c>
@@ -2445,14 +2457,14 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">TAN(F8)</f>
-        <v>3.39333488112139</v>
+        <v>3.39333488112142</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">COS(G8)</f>
         <v>-0.996102882603233</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
@@ -2478,14 +2490,14 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">TAN(F9)</f>
-        <v>4.51070850366206</v>
+        <v>4.51070850366216</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">COS(G9)</f>
-        <v>-0.997551860264703</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.997551860264702</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>62</v>
       </c>
@@ -2511,14 +2523,14 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">TAN(F10)</f>
-        <v>5.99504588144165</v>
+        <v>5.99504588144152</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">COS(G10)</f>
         <v>-0.94005026813291</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>64</v>
       </c>
@@ -2544,14 +2556,14 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">TAN(F11)</f>
-        <v>8.15611452388784</v>
+        <v>8.15611452388765</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">COS(G11)</f>
-        <v>-0.656322432357181</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.656322432357177</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>66</v>
       </c>
@@ -2577,14 +2589,14 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">TAN(F12)</f>
-        <v>7.63694974880958</v>
+        <v>7.6369497488096</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">COS(G12)</f>
-        <v>-0.174335660805646</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.174335660805644</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>68</v>
       </c>
@@ -2610,14 +2622,14 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">TAN(F13)</f>
-        <v>6.34240589855159</v>
+        <v>6.3424058985514</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">COS(G13)</f>
-        <v>0.308020881064551</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.308020881064548</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>70</v>
       </c>
@@ -2643,14 +2655,14 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">TAN(F14)</f>
-        <v>4.93278164545179</v>
+        <v>4.93278164545187</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">COS(G14)</f>
-        <v>0.586655078880281</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.586655078880279</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>72</v>
       </c>
@@ -2676,14 +2688,14 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">TAN(F15)</f>
-        <v>4.34878663398723</v>
+        <v>4.34878663398721</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">COS(G15)</f>
-        <v>0.681870704374819</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.681870704374817</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>74</v>
       </c>
@@ -2709,14 +2721,14 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">TAN(F16)</f>
-        <v>3.48741444384091</v>
+        <v>3.48741444384086</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COS(G16)</f>
-        <v>0.847121921382137</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.847121921382139</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>76</v>
       </c>
@@ -2742,14 +2754,14 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">TAN(F17)</f>
-        <v>2.41600237105283</v>
+        <v>2.41600237105282</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COS(G17)</f>
-        <v>0.952926437370734</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.952926437370735</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>78</v>
       </c>
@@ -2775,14 +2787,14 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">TAN(F18)</f>
-        <v>2.47869819836761</v>
+        <v>2.47869819836759</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">COS(G18)</f>
-        <v>0.933079140576126</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.933079140576124</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>80</v>
       </c>
@@ -2812,7 +2824,7 @@
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">COS(G19)</f>
-        <v>0.961020790977525</v>
+        <v>0.961020790977526</v>
       </c>
     </row>
   </sheetData>
@@ -2824,4 +2836,659 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>111.3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>96.55</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-20.4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">RADIANS((D2-E2)/2)</f>
+        <v>1.02058128010368</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">RADIANS(-(B2+C2-140.145))</f>
+        <v>-2.99070893975488</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">TAN(F2)</f>
+        <v>1.63025456517407</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">COS(G2)</f>
+        <v>-0.988638631317669</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>112.05</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>201.46</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>99.23</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-24</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">RADIANS((D3-E3)/2)</f>
+        <v>1.07538461861631</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">RADIANS(-(B3+C3-140.145))</f>
+        <v>-3.02579005771997</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">TAN(F3)</f>
+        <v>1.8506191568972</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">COS(G3)</f>
+        <v>-0.993302369153283</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>203.44</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-26.45</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">RADIANS((D4-E4)/2)</f>
+        <v>1.12093771209336</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">RADIANS(-(B4+C4-140.145))</f>
+        <v>-3.08041886330739</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">TAN(F4)</f>
+        <v>2.07090487937356</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">COS(G4)</f>
+        <v>-0.998129467131166</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>115.04</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>206.15</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>-29.47</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">RADIANS((D5-E5)/2)</f>
+        <v>1.1691087994484</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">RADIANS(-(B5+C5-140.145))</f>
+        <v>-3.15983134427313</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">TAN(F5)</f>
+        <v>2.35413862619306</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">COS(G5)</f>
+        <v>-0.999833679691691</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>117.36</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>107.57</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">RADIANS((D6-E6)/2)</f>
+        <v>1.22234134163423</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">RADIANS(-(B6+C6-140.145))</f>
+        <v>-3.24133822034127</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">TAN(F6)</f>
+        <v>2.75270826145556</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">COS(G6)</f>
+        <v>-0.995029534011827</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>121.25</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>216.3</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-36</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">RADIANS((D7-E7)/2)</f>
+        <v>1.27670834783385</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">RADIANS(-(B7+C7-140.145))</f>
+        <v>-3.44536720989941</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">TAN(F7)</f>
+        <v>3.30174375285075</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">COS(G7)</f>
+        <v>-0.954214228650719</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>129.06</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>113.15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>-37.3</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">RADIANS((D8-E8)/2)</f>
+        <v>1.31292392981273</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">RADIANS(-(B8+C8-140.145))</f>
+        <v>-3.65498125306393</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">TAN(F8)</f>
+        <v>3.79154597547114</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">COS(G8)</f>
+        <v>-0.871085262963466</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>135.05</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>231.15</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-39.2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">RADIANS((D9-E9)/2)</f>
+        <v>1.34564885328763</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">RADIANS(-(B9+C9-140.145))</f>
+        <v>-3.94540404059578</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">TAN(F9)</f>
+        <v>4.36622928403498</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">COS(G9)</f>
+        <v>-0.693967533874836</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>241.11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>116.43</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-40.4</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">RADIANS((D10-E10)/2)</f>
+        <v>1.36859993295135</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">RADIANS(-(B10+C10-140.145))</f>
+        <v>-4.29813508242384</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">TAN(F10)</f>
+        <v>4.87810340622763</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">COS(G10)</f>
+        <v>-0.402507048074684</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>-39.2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">RADIANS((D11-E11)/2)</f>
+        <v>1.35655716111259</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">RADIANS(-(B11+C11-140.145))</f>
+        <v>-4.73429286249722</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">TAN(F11)</f>
+        <v>4.59604808080825</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">COS(G11)</f>
+        <v>0.02190213064693</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>171.05</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>109.36</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>-36.25</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">RADIANS((D12-E12)/2)</f>
+        <v>1.27068696191447</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">RADIANS(-(B12+C12-140.145))</f>
+        <v>-4.89049983055071</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">TAN(F12)</f>
+        <v>3.2314763003651</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">COS(G12)</f>
+        <v>0.1771706269144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>178.45</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>261.37</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>108.36</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>-34.05</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">RADIANS((D13-E13)/2)</f>
+        <v>1.24276169388256</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">RADIANS(-(B13+C13-140.145))</f>
+        <v>-5.23031543591401</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">TAN(F13)</f>
+        <v>2.93832118647043</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">COS(G13)</f>
+        <v>0.495079609282427</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>183.04</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>263.08</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>103.54</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>-39.3</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">RADIANS((D14-E14)/2)</f>
+        <v>1.24651415177435</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">RADIANS(-(B14+C14-140.145))</f>
+        <v>-5.34027117878965</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">TAN(F14)</f>
+        <v>2.97487456429739</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">COS(G14)</f>
+        <v>0.587432196094256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>184.46</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>264.12</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>-38.45</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">RADIANS((D15-E15)/2)</f>
+        <v>1.22565746721302</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">RADIANS(-(B15+C15-140.145))</f>
+        <v>-5.38320627838871</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">TAN(F15)</f>
+        <v>2.78141414811241</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">COS(G15)</f>
+        <v>0.621626395446409</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>184.45</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>105.22</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">RADIANS((D16-E16)/2)</f>
+        <v>1.22714099707721</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">RADIANS(-(B16+C16-140.145))</f>
+        <v>-5.53801698304061</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">TAN(F16)</f>
+        <v>2.79442836790715</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">COS(G16)</f>
+        <v>0.734973772947004</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>188.52</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>282.35</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>98.27</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>-33.1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">RADIANS((D17-E17)/2)</f>
+        <v>1.14641951917248</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">RADIANS(-(B17+C17-140.145))</f>
+        <v>-5.77224016865825</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">TAN(F17)</f>
+        <v>2.21320943226149</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">COS(G17)</f>
+        <v>0.872282722787618</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">RADIANS((D18-E18)/2)</f>
+        <v>0.589048622548086</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">RADIANS(-(B18+C18-140.145))</f>
+        <v>-5.87137487017152</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">TAN(F18)</f>
+        <v>0.668178637919299</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">COS(G18)</f>
+        <v>0.916397663116821</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>198.35</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>286.35</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">RADIANS((D19-E19)/2)</f>
+        <v>1.08559479474047</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">RADIANS(-(B19+C19-140.145))</f>
+        <v>-6.01361920420906</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">TAN(F19)</f>
+        <v>1.8966687694365</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">COS(G19)</f>
+        <v>0.963886539617357</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/PorSi10_diplom/Izmerenie1.xlsx
+++ b/PorSi10_diplom/Izmerenie1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="05.04.18" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="16.04.18" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="19.04.19" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="23.04" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="03.05.18" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t xml:space="preserve">φ</t>
   </si>
@@ -304,7 +305,7 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">COS(G2)</f>
-        <v>-0.776211491010255</v>
+        <v>-0.776211491010254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -337,7 +338,7 @@
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">COS(G3)</f>
-        <v>-0.719485273469594</v>
+        <v>-0.719485273469593</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -358,7 +359,7 @@
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">RADIANS(51.08)</f>
-        <v>0.891514181918703</v>
+        <v>0.891514181918704</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">RADIANS(-123)</f>
@@ -370,7 +371,7 @@
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">COS(G4)</f>
-        <v>-0.544639035015031</v>
+        <v>-0.544639035015027</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -403,7 +404,7 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">COS(G5)</f>
-        <v>-0.452559223326376</v>
+        <v>-0.452559223326377</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -436,7 +437,7 @@
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">COS(G6)</f>
-        <v>-0.340313904888686</v>
+        <v>-0.340313904888684</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -465,11 +466,11 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">TAN(F7)</f>
-        <v>1.73484671563717</v>
+        <v>1.73484671563715</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">COS(G7)</f>
-        <v>-0.177874846039674</v>
+        <v>-0.17787484603967</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -498,11 +499,11 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">TAN(F8)</f>
-        <v>1.88469237000069</v>
+        <v>1.8846923700007</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">COS(G8)</f>
-        <v>-0.177874846039674</v>
+        <v>-0.17787484603967</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -531,11 +532,11 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">TAN(F9)</f>
-        <v>2.09833405787152</v>
+        <v>2.09833405787153</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">COS(G9)</f>
-        <v>-0.0570412885398911</v>
+        <v>-0.0570412885398922</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -564,11 +565,11 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">TAN(F10)</f>
-        <v>2.36272851833527</v>
+        <v>2.36272851833525</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">COS(G10)</f>
-        <v>0.158278701427885</v>
+        <v>0.158278701427882</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -597,11 +598,11 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">TAN(F11)</f>
-        <v>2.48106916911002</v>
+        <v>2.48106916911003</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">COS(G11)</f>
-        <v>0.343987479375723</v>
+        <v>0.343987479375726</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -663,11 +664,11 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">TAN(F13)</f>
-        <v>2.6774702971046</v>
+        <v>2.67747029710459</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">COS(G13)</f>
-        <v>0.744078383350936</v>
+        <v>0.744078383350937</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -692,15 +693,15 @@
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">RADIANS(-34.096)</f>
-        <v>-0.595087461759987</v>
+        <v>-0.595087461759986</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">TAN(F14)</f>
-        <v>2.54255113749435</v>
+        <v>2.54255113749438</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">COS(G14)</f>
-        <v>0.82809947259001</v>
+        <v>0.828099472590011</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -762,7 +763,7 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">TAN(F16)</f>
-        <v>2.05394194962888</v>
+        <v>2.05394194962887</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COS(G16)</f>
@@ -795,7 +796,7 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">TAN(F17)</f>
-        <v>1.92672573611157</v>
+        <v>1.92672573611158</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COS(G17)</f>
@@ -828,7 +829,7 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">TAN(F18)</f>
-        <v>1.88342186219851</v>
+        <v>1.88342186219852</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">COS(G18)</f>
@@ -861,7 +862,7 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">TAN(F19)</f>
-        <v>2.99563347197909</v>
+        <v>2.99563347197912</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">COS(G19)</f>
@@ -987,7 +988,7 @@
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">TAN(F3)</f>
-        <v>1.71472831977251</v>
+        <v>1.71472831977252</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">COS(G3)</f>
@@ -1020,7 +1021,7 @@
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">TAN(F4)</f>
-        <v>1.84330501148565</v>
+        <v>1.84330501148566</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">COS(G4)</f>
@@ -1053,7 +1054,7 @@
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">TAN(F5)</f>
-        <v>2.12030339040622</v>
+        <v>2.12030339040621</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">COS(G5)</f>
@@ -1086,11 +1087,11 @@
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">TAN(F6)</f>
-        <v>2.25026338560239</v>
+        <v>2.25026338560236</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">COS(G6)</f>
-        <v>-0.956661241593996</v>
+        <v>-0.956661241593995</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1111,7 +1112,7 @@
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">RADIANS(67.63)</f>
-        <v>1.18036617312376</v>
+        <v>1.18036617312377</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">RADIANS(-204.94)</f>
@@ -1119,7 +1120,7 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">TAN(F7)</f>
-        <v>2.42979213316987</v>
+        <v>2.4297921331699</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">COS(G7)</f>
@@ -1152,7 +1153,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">TAN(F8)</f>
-        <v>2.6774702971046</v>
+        <v>2.67747029710459</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">COS(G8)</f>
@@ -1185,11 +1186,11 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">TAN(F9)</f>
-        <v>2.91246490155796</v>
+        <v>2.91246490155798</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">COS(G9)</f>
-        <v>-0.670038029434059</v>
+        <v>-0.670038029434062</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1218,11 +1219,11 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">TAN(F10)</f>
-        <v>2.99737514256832</v>
+        <v>2.99737514256835</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">COS(G10)</f>
-        <v>-0.471781502685297</v>
+        <v>-0.471781502685301</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1251,11 +1252,11 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">TAN(F11)</f>
-        <v>2.99563347197909</v>
+        <v>2.99563347197912</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">COS(G11)</f>
-        <v>-0.27647610983398</v>
+        <v>-0.276476109833981</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1284,7 +1285,7 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">TAN(F12)</f>
-        <v>2.90585833330981</v>
+        <v>2.90585833330984</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">COS(G12)</f>
@@ -1317,11 +1318,11 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">TAN(F13)</f>
-        <v>2.82861887311784</v>
+        <v>2.82861887311785</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">COS(G13)</f>
-        <v>0.104354884860901</v>
+        <v>0.104354884860902</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1350,11 +1351,11 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">TAN(F14)</f>
-        <v>2.75345696090765</v>
+        <v>2.75345696090764</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">COS(G14)</f>
-        <v>0.275134002609198</v>
+        <v>0.275134002609202</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1383,11 +1384,11 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">TAN(F15)</f>
-        <v>2.56884082167937</v>
+        <v>2.56884082167939</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">COS(G15)</f>
-        <v>0.451967703219768</v>
+        <v>0.451967703219765</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1449,11 +1450,11 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">TAN(F17)</f>
-        <v>2.30203968256335</v>
+        <v>2.30203968256333</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COS(G17)</f>
-        <v>0.694030363634564</v>
+        <v>0.694030363634562</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1482,7 +1483,7 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">TAN(F18)</f>
-        <v>2.10409925416185</v>
+        <v>2.10409925416184</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">COS(G18)</f>
@@ -1515,11 +1516,11 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">TAN(F19)</f>
-        <v>1.96600237677326</v>
+        <v>1.96600237677324</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">COS(G19)</f>
-        <v>0.874619707139395</v>
+        <v>0.874619707139396</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1606,7 @@
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">RADIANS(-169.91)</f>
-        <v>-2.96548893206356</v>
+        <v>-2.96548893206357</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">TAN(F2)</f>
@@ -1613,7 +1614,7 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">COS(G2)</f>
-        <v>-0.984533772247127</v>
+        <v>-0.984533772247128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,7 +1647,7 @@
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">COS(G3)</f>
-        <v>-0.98465584142245</v>
+        <v>-0.984655841422451</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1676,7 @@
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">TAN(F4)</f>
-        <v>1.84177088603345</v>
+        <v>1.84177088603346</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">COS(G4)</f>
@@ -1741,7 +1742,7 @@
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">TAN(F6)</f>
-        <v>2.24920548834186</v>
+        <v>2.24920548834184</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">COS(G6)</f>
@@ -1774,11 +1775,11 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">TAN(F7)</f>
-        <v>2.25111030189254</v>
+        <v>2.25111030189257</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">COS(G7)</f>
-        <v>-0.997465679479077</v>
+        <v>-0.997465679479078</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,7 +1808,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">TAN(F8)</f>
-        <v>2.68175350059311</v>
+        <v>2.68175350059308</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">COS(G8)</f>
@@ -1840,7 +1841,7 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">TAN(F9)</f>
-        <v>3.27555486238989</v>
+        <v>3.27555486238988</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">COS(G9)</f>
@@ -1873,7 +1874,7 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">TAN(F10)</f>
-        <v>3.87787946704706</v>
+        <v>3.87787946704701</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">COS(G10)</f>
@@ -1906,11 +1907,11 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">TAN(F11)</f>
-        <v>5.15897425309579</v>
+        <v>5.15897425309576</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">COS(G11)</f>
-        <v>-0.830401462336331</v>
+        <v>-0.830401462336329</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,11 +1940,11 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">TAN(F12)</f>
-        <v>5.41661852835524</v>
+        <v>5.41661852835523</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">COS(G12)</f>
-        <v>-0.516383874201123</v>
+        <v>-0.516383874201121</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,11 +1973,11 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">TAN(F13)</f>
-        <v>5.85516335992698</v>
+        <v>5.85516335992684</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">COS(G13)</f>
-        <v>-0.0535559730176894</v>
+        <v>-0.0535559730176858</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2006,7 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">TAN(F14)</f>
-        <v>3.61814147992371</v>
+        <v>3.61814147992375</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">COS(G14)</f>
@@ -2038,11 +2039,11 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">TAN(F15)</f>
-        <v>3.08758200770379</v>
+        <v>3.08758200770383</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">COS(G15)</f>
-        <v>0.693904698830247</v>
+        <v>0.693904698830246</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,11 +2072,11 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">TAN(F16)</f>
-        <v>2.4819436683852</v>
+        <v>2.48194366838521</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COS(G16)</f>
-        <v>0.829076609563971</v>
+        <v>0.829076609563973</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,7 +2109,7 @@
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COS(G17)</f>
-        <v>0.856987466280542</v>
+        <v>0.85698746628054</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,11 +2138,11 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">TAN(F18)</f>
-        <v>1.92426088262545</v>
+        <v>1.92426088262547</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">COS(G18)</f>
-        <v>0.906160210221292</v>
+        <v>0.90616021022129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,7 +2171,7 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">TAN(F19)</f>
-        <v>1.80702176437719</v>
+        <v>1.80702176437718</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">COS(G19)</f>
@@ -2292,7 +2293,7 @@
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">TAN(F3)</f>
-        <v>1.57271255845011</v>
+        <v>1.5727125584501</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">COS(G3)</f>
@@ -2325,11 +2326,11 @@
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">TAN(F4)</f>
-        <v>1.77182070561561</v>
+        <v>1.77182070561559</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">COS(G4)</f>
-        <v>-0.974094508110172</v>
+        <v>-0.974094508110173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2363,7 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">COS(G5)</f>
-        <v>-0.973979922942276</v>
+        <v>-0.973979922942275</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,7 +2392,7 @@
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">TAN(F6)</f>
-        <v>2.27482659321616</v>
+        <v>2.27482659321618</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">COS(G6)</f>
@@ -2424,11 +2425,11 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">TAN(F7)</f>
-        <v>2.75450574481335</v>
+        <v>2.75450574481333</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">COS(G7)</f>
-        <v>-0.992353495298595</v>
+        <v>-0.992353495298594</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2458,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">TAN(F8)</f>
-        <v>3.39333488112142</v>
+        <v>3.39333488112139</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">COS(G8)</f>
@@ -2490,11 +2491,11 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">TAN(F9)</f>
-        <v>4.51070850366216</v>
+        <v>4.51070850366206</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">COS(G9)</f>
-        <v>-0.997551860264702</v>
+        <v>-0.997551860264703</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,7 +2524,7 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">TAN(F10)</f>
-        <v>5.99504588144152</v>
+        <v>5.99504588144165</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">COS(G10)</f>
@@ -2556,11 +2557,11 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">TAN(F11)</f>
-        <v>8.15611452388765</v>
+        <v>8.15611452388784</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">COS(G11)</f>
-        <v>-0.656322432357177</v>
+        <v>-0.656322432357181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,11 +2590,11 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">TAN(F12)</f>
-        <v>7.6369497488096</v>
+        <v>7.63694974880958</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">COS(G12)</f>
-        <v>-0.174335660805644</v>
+        <v>-0.174335660805646</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,11 +2623,11 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">TAN(F13)</f>
-        <v>6.3424058985514</v>
+        <v>6.34240589855159</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">COS(G13)</f>
-        <v>0.308020881064548</v>
+        <v>0.308020881064551</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,11 +2656,11 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">TAN(F14)</f>
-        <v>4.93278164545187</v>
+        <v>4.93278164545179</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">COS(G14)</f>
-        <v>0.586655078880279</v>
+        <v>0.586655078880281</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,11 +2689,11 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">TAN(F15)</f>
-        <v>4.34878663398721</v>
+        <v>4.34878663398723</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">COS(G15)</f>
-        <v>0.681870704374817</v>
+        <v>0.681870704374819</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,11 +2722,11 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">TAN(F16)</f>
-        <v>3.48741444384086</v>
+        <v>3.48741444384091</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COS(G16)</f>
-        <v>0.847121921382139</v>
+        <v>0.847121921382137</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,11 +2755,11 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">TAN(F17)</f>
-        <v>2.41600237105282</v>
+        <v>2.41600237105283</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COS(G17)</f>
-        <v>0.952926437370735</v>
+        <v>0.952926437370734</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,11 +2788,11 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">TAN(F18)</f>
-        <v>2.47869819836759</v>
+        <v>2.47869819836761</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">COS(G18)</f>
-        <v>0.933079140576124</v>
+        <v>0.933079140576126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,7 +2825,7 @@
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">COS(G19)</f>
-        <v>0.961020790977526</v>
+        <v>0.961020790977525</v>
       </c>
     </row>
   </sheetData>
@@ -2845,18 +2846,18 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,4 +3492,661 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>106.14</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-16.55</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">RADIANS((D4-E2)/2)</f>
+        <v>0.994837673636768</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">RADIANS(-(B2+C2-140.145))</f>
+        <v>-2.79942085373631</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">TAN(F2)</f>
+        <v>1.53986496381458</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">COS(G2)</f>
+        <v>-0.942028175528379</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>105.01</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>193.15</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>95.36</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">RADIANS((D5-E3)/2)</f>
+        <v>1.05068820970059</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">RADIANS(-(B3+C3-140.145))</f>
+        <v>-2.75788201753884</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">TAN(F3)</f>
+        <v>1.74609843053893</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">COS(G3)</f>
+        <v>-0.927281894568399</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>192.28</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>97.45</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-22.2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">RADIANS((D6-E4)/2)</f>
+        <v>1.10278628787262</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">RADIANS(-(B4+C4-140.145))</f>
+        <v>-2.72506982760135</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">TAN(F4)</f>
+        <v>1.9783763763069</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">COS(G4)</f>
+        <v>-0.914501271550959</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>104.45</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>193.26</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">RADIANS((D7-E5)/2)</f>
+        <v>1.15558249774545</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">RADIANS(-(B5+C5-140.145))</f>
+        <v>-2.75002803590486</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">TAN(F5)</f>
+        <v>2.26837568499664</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">COS(G5)</f>
+        <v>-0.92431307848047</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>104.17</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-29.35</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">RADIANS((D8-E6)/2)</f>
+        <v>1.21693082095305</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">RADIANS(-(B6+C6-140.145))</f>
+        <v>-2.7393815274677</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">TAN(F6)</f>
+        <v>2.70698064824936</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">COS(G6)</f>
+        <v>-0.920197690066471</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>193.4</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>107.22</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">RADIANS((D9-E7)/2)</f>
+        <v>1.27976267402484</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">RADIANS(-(B7+C7-140.145))</f>
+        <v>-2.74461751522368</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">TAN(F7)</f>
+        <v>3.3384652883594</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">COS(G7)</f>
+        <v>-0.922234715056598</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">RADIANS((D10-E8)/2)</f>
+        <v>1.34521252097463</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">RADIANS(-(B8+C8-140.145))</f>
+        <v>-2.72803688732974</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">TAN(F8)</f>
+        <v>4.35749137703014</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">COS(G8)</f>
+        <v>-0.91569766641355</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>114.25</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-40.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">RADIANS((D11-E9)/2)</f>
+        <v>1.40586271248143</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">RADIANS(-(B9+C9-140.145))</f>
+        <v>-2.79523206353152</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">TAN(F9)</f>
+        <v>6.00796761610723</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">COS(G9)</f>
+        <v>-0.940614434649878</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>103.35</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>195.13</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>118.05</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-43.8</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">RADIANS((D12-E10)/2)</f>
+        <v>1.46459304181104</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">RADIANS(-(B10+C10-140.145))</f>
+        <v>-2.76346707114522</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">TAN(F10)</f>
+        <v>9.38047686041876</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">COS(G10)</f>
+        <v>-0.929358263605115</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>196.45</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>-47.5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">RADIANS((D13-E11)/2)</f>
+        <v>1.53458074481601</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">RADIANS(-(B11+C11-140.145))</f>
+        <v>-2.90780580028515</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">TAN(F11)</f>
+        <v>27.6003509453969</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">COS(G11)</f>
+        <v>-0.972796098325068</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>124.03</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>-50.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">RADIANS((D12-E12)/2)</f>
+        <v>1.52306157175285</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">RADIANS(-(B12+C12-140.145))</f>
+        <v>-2.9854729519989</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">TAN(F12)</f>
+        <v>20.9331827114851</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">COS(G12)</f>
+        <v>-0.987838051816981</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>128.35</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>-54</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">RADIANS((D13-E13)/2)</f>
+        <v>1.59130394550583</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">RADIANS(-(B13+C13-140.145))</f>
+        <v>-2.74636284447568</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">TAN(F13)</f>
+        <v>-48.7555294784767</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">COS(G13)</f>
+        <v>-0.922908107562168</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>99.45</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>186.05</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">RADIANS((D14-E14)/2)</f>
+        <v>1.67071642647157</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">RADIANS(-(B14+C14-140.145))</f>
+        <v>-2.53692333423636</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">TAN(F14)</f>
+        <v>-9.97466753150832</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">COS(G14)</f>
+        <v>-0.822690131269897</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>188.35</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>-57.1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">RADIANS((D15-E15)/2)</f>
+        <v>1.65980811864661</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">RADIANS(-(B15+C15-140.145))</f>
+        <v>-2.62855311996606</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">TAN(F15)</f>
+        <v>-11.2047802898679</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">COS(G15)</f>
+        <v>-0.871256647236854</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>219.05</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">RADIANS((D16-E16)/2)</f>
+        <v>1.70256868532047</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">RADIANS(-(B16+C16-140.145))</f>
+        <v>-3.11200932276849</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">TAN(F16)</f>
+        <v>-7.54486991845273</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">COS(G16)</f>
+        <v>-0.999562445181519</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>-68.3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">RADIANS((D17-E17)/2)</f>
+        <v>1.76540053839226</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">RADIANS(-(B17+C17-140.145))</f>
+        <v>-3.27519760782996</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">TAN(F17)</f>
+        <v>-5.07360249672959</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">COS(G17)</f>
+        <v>-0.991088126563852</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>107.25</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>208.2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>-77.3</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">RADIANS((D18-E18)/2)</f>
+        <v>1.91549885406378</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">RADIANS(-(B18+C18-140.145))</f>
+        <v>-3.05964944520866</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">TAN(F18)</f>
+        <v>-2.7852306947628</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">COS(G18)</f>
+        <v>-0.996644533506912</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>94.35</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>-75.4</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">RADIANS((D19-E19)/2)</f>
+        <v>1.90589954317781</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">RADIANS(-(B19+C19-140.145))</f>
+        <v>-2.90082448327718</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">TAN(F19)</f>
+        <v>-2.87160884085691</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">COS(G19)</f>
+        <v>-0.971155092182859</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>